--- a/mathTransformed/HMPSTT_(2020-12-28)_49_4.xlsx
+++ b/mathTransformed/HMPSTT_(2020-12-28)_49_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -481,7 +486,8 @@
           <t>A V HANUMANTHA RAJU</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>GPU College Turuvanuru Chitradurg</t>
         </is>
@@ -508,7 +514,8 @@
           <t>ANITHA A</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>Adarsha Vidyalaya (RMSA)Molakalmur Chitradurg</t>
         </is>
@@ -535,7 +542,8 @@
           <t>ANITHA S</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>B.L.R.J.C. Sirigere Chitradurga</t>
         </is>
@@ -564,6 +572,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>Sri Gurushanteshwara High Sschool Godabanahal</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Chitradurg</t>
         </is>
       </c>
@@ -591,6 +604,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>Govt High SchoolChavallihalliGollarahatti</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Chitradurg</t>
         </is>
       </c>
@@ -616,7 +634,8 @@
           <t>BHAGYA T O</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>B.L.R.J.C. Sirigere Chitradurga</t>
         </is>
@@ -643,7 +662,8 @@
           <t>BHARATI  NAIK</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>Dinakar School,Kumta,Uttarkannada</t>
         </is>
@@ -670,7 +690,8 @@
           <t>CHANNAPPA KOTIHAL</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>Maharani Composit P U College (HS Section) Chitradurga</t>
         </is>
@@ -697,7 +718,8 @@
           <t>CHETHANA M P</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>Govt. P U College,(High School Section)Yalagodu,Chitradurga</t>
         </is>
@@ -724,7 +746,8 @@
           <t>DEEPA R</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>GPU College Turuvanuru Chitradurg</t>
         </is>
@@ -751,7 +774,8 @@
           <t>EKANTHA S K</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>Sri Vijaya Kan Hs Manumaihnahatty Challakere,Chitradurg</t>
         </is>
@@ -778,7 +802,8 @@
           <t>FARKHUNDA BATOOL</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>Govt. Girls Juniour College Chitradurg</t>
         </is>
@@ -805,7 +830,8 @@
           <t>G PURNIMA</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>Sri Anjaneyaswamy HS Manangi Chitradurg</t>
         </is>
@@ -832,7 +858,8 @@
           <t>G S SHIVAKUMAR</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>B.L.R.J.C. Sirigere Chitradurga</t>
         </is>
@@ -859,7 +886,8 @@
           <t>GAYATHRI J</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>GHS Hirekabbigere Gollara Hatti Chitradurg</t>
         </is>
@@ -886,7 +914,8 @@
           <t>GAYATHRI R N</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>GHS Dodda Siddana Halli Chitradurga</t>
         </is>
@@ -913,7 +942,8 @@
           <t>H C MAHESHA</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>Sri Bruhanmatha H S Chitradurga</t>
         </is>
@@ -940,7 +970,8 @@
           <t>JABEENA K</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>Govt.Boys Juniour College Chitradurg</t>
         </is>
@@ -967,7 +998,8 @@
           <t>K P RAMESHA</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>Sri Maruthi High Schoo Karpenahalli Madhugir</t>
         </is>
@@ -994,7 +1026,8 @@
           <t>K PRIYADARSHINI</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>B T S HS Kamparahalli Tiptur,Tumku</t>
         </is>
@@ -1021,7 +1054,8 @@
           <t>KENCHALINGAPPA</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>A B N C H S KB Extention Chitradurga</t>
         </is>
@@ -1048,7 +1082,8 @@
           <t>LOKANATHA B M</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>Sri Gaviranganatha HS Doddennegere Chiknayakanhalli,Tumku</t>
         </is>
@@ -1077,6 +1112,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>V B H S T R Nagar,Challakere</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Chiradurga</t>
         </is>
       </c>
@@ -1102,7 +1142,8 @@
           <t>MAHE JABEEN P</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t>GPU College Turuvanuru Chitradurg</t>
         </is>
@@ -1131,6 +1172,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>GHS Valluru</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Pavagada,Madhugir</t>
         </is>
       </c>
@@ -1158,6 +1204,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>S Y B R High School Haikal</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Chiradurga</t>
         </is>
       </c>
@@ -1183,7 +1234,8 @@
           <t>NAGALAMBIKA D</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
         <is>
           <t>Sampige Siddeswara HS Chitradurga</t>
         </is>
@@ -1210,7 +1262,8 @@
           <t>NANJUNDAPPA A C</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
         <is>
           <t>S B C J C Kolala,koratager,Madhugiri</t>
         </is>
@@ -1239,6 +1292,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>Govt High School Badavanahalli</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Madhugir</t>
         </is>
       </c>
@@ -1264,7 +1322,8 @@
           <t>PRAKASH G PATGAR S D P H S</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
         <is>
           <t>Alvekodi,Bhatkal,Uttarkannada</t>
         </is>
@@ -1291,7 +1350,8 @@
           <t>R NAGARAJU</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
         <is>
           <t>DR.B.R.Ambedkar Aided High School Koratagere,Madhugiri</t>
         </is>
@@ -1318,7 +1378,8 @@
           <t>RASHMI G S</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
         <is>
           <t>Sri Sadguru Kabeerananda Swamy HS Chitradurg</t>
         </is>
@@ -1345,7 +1406,8 @@
           <t>RENUKAPPA G</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
         <is>
           <t>Vidyaranya H S Turuvekere,Tumkur</t>
         </is>
@@ -1374,6 +1436,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>Adarsha Vidyalaya(RMSA)</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Molakalmur Chitradurg</t>
         </is>
       </c>
@@ -1399,7 +1466,8 @@
           <t>ROTTI CHANNAKESHWARA</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
         <is>
           <t>B.L.R.J.C. Sirigere Chitradurg</t>
         </is>
@@ -1426,7 +1494,8 @@
           <t>S A ASHOK</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
         <is>
           <t>Bapuji  Comp PUC Bharamasagar Chitradurga</t>
         </is>
@@ -1453,7 +1522,8 @@
           <t>SALMA NAAZ</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
         <is>
           <t>Govt High School Badavanahalli Madhugir</t>
         </is>
@@ -1480,7 +1550,8 @@
           <t>SALMA TABASUM</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
         <is>
           <t>Govt PU College (High School Section),Yalagodu Chitradurga</t>
         </is>
@@ -1509,6 +1580,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>Adarsha Vidyalaya Challakere</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -1534,7 +1610,8 @@
           <t>SINDHUMATHI S R</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
         <is>
           <t>GHS Kolahal,Chitradurg</t>
         </is>
@@ -1563,6 +1640,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>Little Flower Girls High School (Aided)Hospet</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1588,7 +1670,8 @@
           <t>T S SURESH</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
         <is>
           <t>GHS Shettigere,Kunigal,tumkur</t>
         </is>
@@ -1615,7 +1698,8 @@
           <t>UMME SALMA S</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
         <is>
           <t>GUHS Chitradurga</t>
         </is>
@@ -1642,7 +1726,8 @@
           <t>UTTANGI BASAVARAJA</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
         <is>
           <t>SMIORE HS Hospet,Ballari</t>
         </is>
@@ -1671,6 +1756,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>P M High SchoolAnkola</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Uttarkannada</t>
         </is>
       </c>
@@ -1696,7 +1786,8 @@
           <t>VARAMAHALAKSHMI</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
         <is>
           <t>GJC HS  Bhaktharahalli Kunigal,Tumku</t>
         </is>
@@ -1723,7 +1814,8 @@
           <t>VEENA M C</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
         <is>
           <t>Govt. Girls Juniour College Chitradurga</t>
         </is>
@@ -1752,6 +1844,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>Adarsha Vidyalaya Challakere</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -1777,7 +1874,8 @@
           <t>ZAHEER AHAMED</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
         <is>
           <t>Govt.Boys Juniur College Chitradurga</t>
         </is>

--- a/mathTransformed/HMPSTT_(2020-12-28)_49_4.xlsx
+++ b/mathTransformed/HMPSTT_(2020-12-28)_49_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,7 +486,6 @@
           <t>A V HANUMANTHA RAJU</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>GPU College Turuvanuru Chitradurg</t>
@@ -514,7 +513,6 @@
           <t>ANITHA A</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>Adarsha Vidyalaya (RMSA)Molakalmur Chitradurg</t>
@@ -542,7 +540,6 @@
           <t>ANITHA S</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
           <t>B.L.R.J.C. Sirigere Chitradurga</t>
@@ -634,7 +631,6 @@
           <t>BHAGYA T O</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
           <t>B.L.R.J.C. Sirigere Chitradurga</t>
@@ -662,7 +658,6 @@
           <t>BHARATI  NAIK</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
           <t>Dinakar School,Kumta,Uttarkannada</t>
@@ -690,7 +685,6 @@
           <t>CHANNAPPA KOTIHAL</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
           <t>Maharani Composit P U College (HS Section) Chitradurga</t>
@@ -718,7 +712,6 @@
           <t>CHETHANA M P</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
           <t>Govt. P U College,(High School Section)Yalagodu,Chitradurga</t>
@@ -746,7 +739,6 @@
           <t>DEEPA R</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
           <t>GPU College Turuvanuru Chitradurg</t>
@@ -774,7 +766,6 @@
           <t>EKANTHA S K</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
           <t>Sri Vijaya Kan Hs Manumaihnahatty Challakere,Chitradurg</t>
@@ -802,7 +793,6 @@
           <t>FARKHUNDA BATOOL</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
           <t>Govt. Girls Juniour College Chitradurg</t>
@@ -830,7 +820,6 @@
           <t>G PURNIMA</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
           <t>Sri Anjaneyaswamy HS Manangi Chitradurg</t>
@@ -858,7 +847,6 @@
           <t>G S SHIVAKUMAR</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
           <t>B.L.R.J.C. Sirigere Chitradurga</t>
@@ -886,7 +874,6 @@
           <t>GAYATHRI J</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
           <t>GHS Hirekabbigere Gollara Hatti Chitradurg</t>
@@ -914,7 +901,6 @@
           <t>GAYATHRI R N</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
           <t>GHS Dodda Siddana Halli Chitradurga</t>
@@ -942,7 +928,6 @@
           <t>H C MAHESHA</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
           <t>Sri Bruhanmatha H S Chitradurga</t>
@@ -970,7 +955,6 @@
           <t>JABEENA K</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
           <t>Govt.Boys Juniour College Chitradurg</t>
@@ -998,7 +982,6 @@
           <t>K P RAMESHA</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
           <t>Sri Maruthi High Schoo Karpenahalli Madhugir</t>
@@ -1026,7 +1009,6 @@
           <t>K PRIYADARSHINI</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
           <t>B T S HS Kamparahalli Tiptur,Tumku</t>
@@ -1054,7 +1036,6 @@
           <t>KENCHALINGAPPA</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
           <t>A B N C H S KB Extention Chitradurga</t>
@@ -1082,7 +1063,6 @@
           <t>LOKANATHA B M</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
           <t>Sri Gaviranganatha HS Doddennegere Chiknayakanhalli,Tumku</t>
@@ -1142,7 +1122,6 @@
           <t>MAHE JABEEN P</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
           <t>GPU College Turuvanuru Chitradurg</t>
@@ -1234,7 +1213,6 @@
           <t>NAGALAMBIKA D</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
           <t>Sampige Siddeswara HS Chitradurga</t>
@@ -1262,7 +1240,6 @@
           <t>NANJUNDAPPA A C</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
           <t>S B C J C Kolala,koratager,Madhugiri</t>
@@ -1322,7 +1299,6 @@
           <t>PRAKASH G PATGAR S D P H S</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
           <t>Alvekodi,Bhatkal,Uttarkannada</t>
@@ -1350,7 +1326,6 @@
           <t>R NAGARAJU</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
           <t>DR.B.R.Ambedkar Aided High School Koratagere,Madhugiri</t>
@@ -1378,7 +1353,6 @@
           <t>RASHMI G S</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
           <t>Sri Sadguru Kabeerananda Swamy HS Chitradurg</t>
@@ -1406,7 +1380,6 @@
           <t>RENUKAPPA G</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
           <t>Vidyaranya H S Turuvekere,Tumkur</t>
@@ -1466,7 +1439,6 @@
           <t>ROTTI CHANNAKESHWARA</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
           <t>B.L.R.J.C. Sirigere Chitradurg</t>
@@ -1494,7 +1466,6 @@
           <t>S A ASHOK</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
           <t>Bapuji  Comp PUC Bharamasagar Chitradurga</t>
@@ -1522,7 +1493,6 @@
           <t>SALMA NAAZ</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
           <t>Govt High School Badavanahalli Madhugir</t>
@@ -1550,7 +1520,6 @@
           <t>SALMA TABASUM</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
           <t>Govt PU College (High School Section),Yalagodu Chitradurga</t>
@@ -1610,7 +1579,6 @@
           <t>SINDHUMATHI S R</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
           <t>GHS Kolahal,Chitradurg</t>
@@ -1645,7 +1613,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1638,6 @@
           <t>T S SURESH</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
           <t>GHS Shettigere,Kunigal,tumkur</t>
@@ -1698,7 +1665,6 @@
           <t>UMME SALMA S</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
           <t>GUHS Chitradurga</t>
@@ -1726,7 +1692,6 @@
           <t>UTTANGI BASAVARAJA</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
           <t>SMIORE HS Hospet,Ballari</t>
@@ -1786,7 +1751,6 @@
           <t>VARAMAHALAKSHMI</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
           <t>GJC HS  Bhaktharahalli Kunigal,Tumku</t>
@@ -1814,7 +1778,6 @@
           <t>VEENA M C</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
           <t>Govt. Girls Juniour College Chitradurga</t>
@@ -1874,7 +1837,6 @@
           <t>ZAHEER AHAMED</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
           <t>Govt.Boys Juniur College Chitradurga</t>

--- a/mathTransformed/HMPSTT_(2020-12-28)_49_4.xlsx
+++ b/mathTransformed/HMPSTT_(2020-12-28)_49_4.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>GPU College Turuvanuru Chitradurg</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Adarsha Vidyalaya (RMSA)Molakalmur Chitradurg</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -542,7 +542,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>B.L.R.J.C. Sirigere Chitradurga</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -574,7 +574,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Chitradurg</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Chitradurg</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>B.L.R.J.C. Sirigere Chitradurga</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Dinakar School,Kumta,Uttarkannada</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Maharani Composit P U College (HS Section) Chitradurga</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -714,7 +714,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Govt. P U College,(High School Section)Yalagodu,Chitradurga</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>GPU College Turuvanuru Chitradurg</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -768,7 +768,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Sri Vijaya Kan Hs Manumaihnahatty Challakere,Chitradurg</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Govt. Girls Juniour College Chitradurg</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Sri Anjaneyaswamy HS Manangi Chitradurg</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>B.L.R.J.C. Sirigere Chitradurga</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>GHS Hirekabbigere Gollara Hatti Chitradurg</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>GHS Dodda Siddana Halli Chitradurga</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Sri Bruhanmatha H S Chitradurga</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Govt.Boys Juniour College Chitradurg</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -984,7 +984,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Sri Maruthi High Schoo Karpenahalli Madhugir</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>B T S HS Kamparahalli Tiptur,Tumku</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>A B N C H S KB Extention Chitradurga</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Sri Gaviranganatha HS Doddennegere Chiknayakanhalli,Tumku</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Chiradurga</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>GPU College Turuvanuru Chitradurg</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Pavagada,Madhugir</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Chiradurga</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Sampige Siddeswara HS Chitradurga</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>S B C J C Kolala,koratager,Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Madhugir</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alvekodi,Bhatkal,Uttarkannada</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>DR.B.R.Ambedkar Aided High School Koratagere,Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Sri Sadguru Kabeerananda Swamy HS Chitradurg</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Vidyaranya H S Turuvekere,Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Molakalmur Chitradurg</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>B.L.R.J.C. Sirigere Chitradurg</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Bapuji  Comp PUC Bharamasagar Chitradurga</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Govt High School Badavanahalli Madhugir</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Govt PU College (High School Section),Yalagodu Chitradurga</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>GHS Kolahal,Chitradurg</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -1640,7 +1640,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>GHS Shettigere,Kunigal,tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>GUHS Chitradurga</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>SMIORE HS Hospet,Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Uttarkannada</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>GJC HS  Bhaktharahalli Kunigal,Tumku</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Govt. Girls Juniour College Chitradurga</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Govt.Boys Juniur College Chitradurga</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
